--- a/Piano di Progetto/Preventivo/Totale.Economico.xlsx
+++ b/Piano di Progetto/Preventivo/Totale.Economico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454A1AA5-435F-4FC9-ABA0-FCBCE8503539}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58564313-58E0-45AD-A019-53E081ACDD5E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -531,7 +531,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1526DCFC-2621-45BC-859A-8A7F0D00817C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -559,12 +561,10 @@
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
-        <v>68</v>
-      </c>
+      <c r="B2" s="13"/>
       <c r="C2" s="2">
         <f>30*B2</f>
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>40</v>
@@ -578,12 +578,10 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>109</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="5">
         <f>25*B3</f>
-        <v>2725</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3">
         <v>25</v>
@@ -597,31 +595,27 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
-        <v>245</v>
-      </c>
+      <c r="B4" s="14"/>
       <c r="C4" s="2">
         <f>22*B4</f>
-        <v>5390</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E4" s="1">
         <f>22*D4</f>
-        <v>5390</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
-        <v>75</v>
-      </c>
+      <c r="B5" s="15"/>
       <c r="C5" s="4">
         <f>20*B5</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <v>30</v>
@@ -635,38 +629,34 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14">
-        <v>145</v>
-      </c>
+      <c r="B6" s="14"/>
       <c r="C6" s="2">
         <f>15*B6</f>
-        <v>2175</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E6" s="1">
         <f>15*D6</f>
-        <v>2175</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
-        <v>304</v>
-      </c>
+      <c r="B7" s="9"/>
       <c r="C7" s="8">
         <f>15*B7</f>
-        <v>4560</v>
+        <v>0</v>
       </c>
       <c r="D7" s="9">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E7" s="9">
         <f>15*D7</f>
-        <v>3450</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
@@ -675,11 +665,11 @@
       </c>
       <c r="B8" s="16">
         <f>SUM(B2:B7)</f>
-        <v>946</v>
+        <v>0</v>
       </c>
       <c r="C8" s="10">
         <f>SUM(C2:C7)</f>
-        <v>18390</v>
+        <v>0</v>
       </c>
       <c r="D8" s="11">
         <f>SUM(D2:D7)</f>
@@ -687,7 +677,7 @@
       </c>
       <c r="E8" s="11">
         <f>SUM(E2:E7)</f>
-        <v>13440</v>
+        <v>13475</v>
       </c>
     </row>
   </sheetData>

--- a/Piano di Progetto/Preventivo/Totale.Economico.xlsx
+++ b/Piano di Progetto/Preventivo/Totale.Economico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58564313-58E0-45AD-A019-53E081ACDD5E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE23D29F-E817-4689-A0BB-759DD3B6B8E2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -67,6 +67,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,6 +213,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -230,6 +257,1771 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F55E-42E0-83E1-517176708917}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F55E-42E0-83E1-517176708917}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F55E-42E0-83E1-517176708917}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F55E-42E0-83E1-517176708917}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F55E-42E0-83E1-517176708917}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-F55E-42E0-83E1-517176708917}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Responsabile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analista</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Progettista</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Amministratore</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Programmatore</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Verificatore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4410</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD3E-40C2-AD1E-9468961AF1AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7E92-4D3B-A9DB-149CB91EE3E1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7E92-4D3B-A9DB-149CB91EE3E1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7E92-4D3B-A9DB-149CB91EE3E1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7E92-4D3B-A9DB-149CB91EE3E1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7E92-4D3B-A9DB-149CB91EE3E1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7E92-4D3B-A9DB-149CB91EE3E1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Responsabile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analista</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Progettista</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Amministratore</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Programmatore</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Verificatore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>3300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A845-45E6-84E8-73EB174E7435}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE236BB-D442-4433-8545-54DADDD751CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>107157</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D31D00F-EE77-4AE9-AE53-98388819DC0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1526DCFC-2621-45BC-859A-8A7F0D00817C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,16 +2353,17 @@
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="2">
-        <f>30*B2</f>
-        <v>0</v>
+      <c r="B2" s="13">
+        <f>D2+28</f>
+        <v>68</v>
+      </c>
+      <c r="C2" s="17">
+        <v>2040</v>
       </c>
       <c r="D2" s="1">
         <v>40</v>
       </c>
-      <c r="E2" s="1">
-        <f>30*D2</f>
+      <c r="E2" s="22">
         <v>1200</v>
       </c>
     </row>
@@ -578,10 +2371,12 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5">
-        <f>25*B3</f>
-        <v>0</v>
+      <c r="B3" s="3">
+        <f>D3+84</f>
+        <v>109</v>
+      </c>
+      <c r="C3" s="18">
+        <v>2725</v>
       </c>
       <c r="D3" s="3">
         <v>25</v>
@@ -595,16 +2390,17 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="2">
-        <f>22*B4</f>
-        <v>0</v>
+      <c r="B4" s="14">
+        <f>D4</f>
+        <v>250</v>
+      </c>
+      <c r="C4" s="17">
+        <v>5500</v>
       </c>
       <c r="D4" s="1">
         <v>250</v>
       </c>
-      <c r="E4" s="1">
-        <f>22*D4</f>
+      <c r="E4" s="22">
         <v>5500</v>
       </c>
     </row>
@@ -612,10 +2408,12 @@
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="4">
-        <f>20*B5</f>
-        <v>0</v>
+      <c r="B5" s="15">
+        <f>D5+45</f>
+        <v>75</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1500</v>
       </c>
       <c r="D5" s="7">
         <v>30</v>
@@ -629,16 +2427,17 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="2">
-        <f>15*B6</f>
-        <v>0</v>
+      <c r="B6" s="14">
+        <f>D6</f>
+        <v>150</v>
+      </c>
+      <c r="C6" s="17">
+        <v>2250</v>
       </c>
       <c r="D6" s="1">
         <v>150</v>
       </c>
-      <c r="E6" s="1">
-        <f>15*D6</f>
+      <c r="E6" s="22">
         <v>2250</v>
       </c>
     </row>
@@ -646,16 +2445,17 @@
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8">
-        <f>15*B7</f>
-        <v>0</v>
+      <c r="B7" s="9">
+        <f>D7+74</f>
+        <v>294</v>
+      </c>
+      <c r="C7" s="20">
+        <v>4410</v>
       </c>
       <c r="D7" s="9">
         <v>220</v>
       </c>
-      <c r="E7" s="9">
-        <f>15*D7</f>
+      <c r="E7" s="23">
         <v>3300</v>
       </c>
     </row>
@@ -665,18 +2465,16 @@
       </c>
       <c r="B8" s="16">
         <f>SUM(B2:B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="10">
-        <f>SUM(C2:C7)</f>
-        <v>0</v>
+        <v>946</v>
+      </c>
+      <c r="C8" s="21">
+        <v>18425</v>
       </c>
       <c r="D8" s="11">
         <f>SUM(D2:D7)</f>
         <v>715</v>
       </c>
-      <c r="E8" s="11">
-        <f>SUM(E2:E7)</f>
+      <c r="E8" s="24">
         <v>13475</v>
       </c>
     </row>
@@ -684,7 +2482,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E4" formula="1"/>
+    <ignoredError sqref="B5" formula="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Piano di Progetto/Preventivo/Totale.Economico.xlsx
+++ b/Piano di Progetto/Preventivo/Totale.Economico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE23D29F-E817-4689-A0BB-759DD3B6B8E2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E42C9A-7127-4E23-B37F-9C488AA2B0E8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -422,13 +422,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -485,10 +483,10 @@
             <c:numRef>
               <c:f>Foglio1!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2040</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2725</c:v>
@@ -565,7 +563,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -741,13 +739,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -807,7 +803,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="#,##0">
-                  <c:v>1200</c:v>
+                  <c:v>1170</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>625</c:v>
@@ -884,7 +880,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -2324,7 +2320,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E8" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2354,17 +2350,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="13">
-        <f>D2+28</f>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="17">
-        <v>2040</v>
+        <f>30*B2</f>
+        <v>2010</v>
       </c>
       <c r="D2" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="22">
-        <v>1200</v>
+        <f>30*D2</f>
+        <v>1170</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2376,6 +2373,7 @@
         <v>109</v>
       </c>
       <c r="C3" s="18">
+        <f>25*B3</f>
         <v>2725</v>
       </c>
       <c r="D3" s="3">
@@ -2395,12 +2393,14 @@
         <v>250</v>
       </c>
       <c r="C4" s="17">
+        <f>22*B4</f>
         <v>5500</v>
       </c>
       <c r="D4" s="1">
         <v>250</v>
       </c>
       <c r="E4" s="22">
+        <f>22*D4</f>
         <v>5500</v>
       </c>
     </row>
@@ -2413,6 +2413,7 @@
         <v>75</v>
       </c>
       <c r="C5" s="19">
+        <f>20*B5</f>
         <v>1500</v>
       </c>
       <c r="D5" s="7">
@@ -2432,12 +2433,14 @@
         <v>150</v>
       </c>
       <c r="C6" s="17">
+        <f>15*B6</f>
         <v>2250</v>
       </c>
       <c r="D6" s="1">
         <v>150</v>
       </c>
       <c r="E6" s="22">
+        <f>15*D6</f>
         <v>2250</v>
       </c>
     </row>
@@ -2450,12 +2453,14 @@
         <v>294</v>
       </c>
       <c r="C7" s="20">
+        <f>15*B7</f>
         <v>4410</v>
       </c>
       <c r="D7" s="9">
         <v>220</v>
       </c>
       <c r="E7" s="23">
+        <f>15*D7</f>
         <v>3300</v>
       </c>
     </row>
@@ -2465,17 +2470,19 @@
       </c>
       <c r="B8" s="16">
         <f>SUM(B2:B7)</f>
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C8" s="21">
-        <v>18425</v>
+        <f>SUM(C2:C7)</f>
+        <v>18395</v>
       </c>
       <c r="D8" s="11">
         <f>SUM(D2:D7)</f>
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E8" s="24">
-        <v>13475</v>
+        <f>SUM(E2:E7)</f>
+        <v>13445</v>
       </c>
     </row>
   </sheetData>
